--- a/pathfindin.xlsx
+++ b/pathfindin.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C82FAAD-09F8-4F74-9FF5-400C6FB727ED}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F2312D-DC5F-4F48-A026-42513360B4E6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>pts origine</t>
   </si>
@@ -34,10 +34,19 @@
     <t>desti 3</t>
   </si>
   <si>
-    <t>estination</t>
+    <t>0;0</t>
   </si>
   <si>
-    <t>0;0</t>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Abscisse</t>
+  </si>
+  <si>
+    <t>Ordonnée</t>
   </si>
 </sst>
 </file>
@@ -79,7 +88,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -179,11 +188,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -202,6 +270,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,22 +556,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="120" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="120" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -511,10 +587,70 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H1" s="5">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5">
+        <v>2</v>
+      </c>
+      <c r="J1" s="5">
+        <v>3</v>
+      </c>
+      <c r="K1" s="5">
+        <v>4</v>
+      </c>
+      <c r="L1" s="5">
+        <v>5</v>
+      </c>
+      <c r="M1" s="5">
+        <v>6</v>
+      </c>
+      <c r="N1" s="5">
+        <v>7</v>
+      </c>
+      <c r="O1" s="5">
+        <v>8</v>
+      </c>
+      <c r="P1" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>10</v>
+      </c>
+      <c r="R1" s="5">
+        <v>11</v>
+      </c>
+      <c r="S1" s="5">
+        <v>12</v>
+      </c>
+      <c r="T1" s="5">
+        <v>13</v>
+      </c>
+      <c r="U1" s="5">
+        <v>14</v>
+      </c>
+      <c r="V1" s="5">
+        <v>15</v>
+      </c>
+      <c r="W1" s="6">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -526,8 +662,40 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="14"/>
+      <c r="Y2" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -541,8 +709,42 @@
         <v>3</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="14"/>
+      <c r="Y3" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -556,8 +758,42 @@
         <v>4</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="14"/>
+      <c r="Y4" s="18">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="20">
+        <v>6.8</v>
+      </c>
+      <c r="AA4" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -571,8 +807,42 @@
         <v>10</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="15">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
+      <c r="Y5" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="20">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -584,8 +854,40 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="4">
+        <v>1</v>
+      </c>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="14"/>
+      <c r="Y6" s="18">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>10.3</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -599,8 +901,42 @@
         <v>7</v>
       </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="14"/>
+      <c r="Y7" s="18">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -614,8 +950,42 @@
         <v>8</v>
       </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="2">
+        <v>7</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="4">
+        <v>1</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="14"/>
+      <c r="Y8" s="18">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -627,8 +997,40 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="2">
+        <v>8</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="Y9" s="18">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="20">
+        <v>6.8</v>
+      </c>
+      <c r="AA9" s="18">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -642,8 +1044,42 @@
         <v>10</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" s="2">
+        <v>9</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="12"/>
+      <c r="W10" s="14"/>
+      <c r="Y10" s="18">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -659,8 +1095,44 @@
       <c r="E11" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="4">
+        <v>1</v>
+      </c>
+      <c r="S11" s="12"/>
+      <c r="T11" s="4">
+        <v>1</v>
+      </c>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="14"/>
+      <c r="Y11" s="18">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="20">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -674,8 +1146,42 @@
         <v>10</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12" s="2">
+        <v>11</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="15">
+        <v>1</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="4">
+        <v>1</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>11</v>
+      </c>
+      <c r="Z12" s="20">
+        <v>10.3</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -687,8 +1193,40 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G13" s="2">
+        <v>12</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
+      <c r="U13" s="12"/>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="14"/>
+      <c r="Y13" s="18">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -700,8 +1238,40 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G14" s="2">
+        <v>13</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="4">
+        <v>1</v>
+      </c>
+      <c r="R14" s="12"/>
+      <c r="S14" s="4">
+        <v>1</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="14"/>
+      <c r="Y14" s="18">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="20">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AA14" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -713,8 +1283,40 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G15" s="2">
+        <v>14</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="15">
+        <v>1</v>
+      </c>
+      <c r="W15" s="14"/>
+      <c r="Y15" s="18">
+        <v>14</v>
+      </c>
+      <c r="Z15" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -726,8 +1328,40 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G16" s="2">
+        <v>15</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="4">
+        <v>1</v>
+      </c>
+      <c r="V16" s="10"/>
+      <c r="W16" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="18">
+        <v>15</v>
+      </c>
+      <c r="Z16" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -740,479 +1374,45 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="5">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5">
-        <v>2</v>
-      </c>
-      <c r="K21" s="5">
-        <v>3</v>
-      </c>
-      <c r="L21" s="5">
-        <v>4</v>
-      </c>
-      <c r="M21" s="5">
-        <v>5</v>
-      </c>
-      <c r="N21" s="5">
-        <v>6</v>
-      </c>
-      <c r="O21" s="5">
-        <v>7</v>
-      </c>
-      <c r="P21" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>9</v>
-      </c>
-      <c r="R21" s="5">
-        <v>10</v>
-      </c>
-      <c r="S21" s="5">
-        <v>11</v>
-      </c>
-      <c r="T21" s="5">
-        <v>12</v>
-      </c>
-      <c r="U21" s="5">
-        <v>13</v>
-      </c>
-      <c r="V21" s="5">
-        <v>14</v>
-      </c>
-      <c r="W21" s="5">
-        <v>15</v>
-      </c>
-      <c r="X21" s="6">
+      <c r="G17" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="13"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H23" s="2">
-        <v>2</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="4">
-        <v>1</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="4">
-        <v>1</v>
-      </c>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="14"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H24" s="2">
-        <v>3</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="4">
-        <v>1</v>
-      </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="14"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H25" s="2">
-        <v>4</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="4">
-        <v>1</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="15">
-        <v>1</v>
-      </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="4">
-        <v>1</v>
-      </c>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="14"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H26" s="2">
-        <v>5</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="4">
-        <v>1</v>
-      </c>
-      <c r="M26" s="10"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="4">
-        <v>1</v>
-      </c>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="14"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H27" s="2">
-        <v>6</v>
-      </c>
-      <c r="I27" s="4">
-        <v>1</v>
-      </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="4">
-        <v>1</v>
-      </c>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="4">
-        <v>1</v>
-      </c>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="14"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H28" s="2">
-        <v>7</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="4">
-        <v>1</v>
-      </c>
-      <c r="O28" s="10"/>
-      <c r="P28" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="14"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H29" s="2">
-        <v>8</v>
-      </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="4">
-        <v>1</v>
-      </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="4">
-        <v>1</v>
-      </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="14"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H30" s="2">
-        <v>9</v>
-      </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="4">
-        <v>1</v>
-      </c>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="4">
-        <v>1</v>
-      </c>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="4">
-        <v>1</v>
-      </c>
-      <c r="W30" s="12"/>
-      <c r="X30" s="14"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H31" s="2">
-        <v>10</v>
-      </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="4">
-        <v>1</v>
-      </c>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="4">
-        <v>1</v>
-      </c>
-      <c r="R31" s="10"/>
-      <c r="S31" s="4">
-        <v>1</v>
-      </c>
-      <c r="T31" s="12"/>
-      <c r="U31" s="4">
-        <v>1</v>
-      </c>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="14"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H32" s="2">
-        <v>11</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="15">
-        <v>1</v>
-      </c>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="4">
-        <v>1</v>
-      </c>
-      <c r="S32" s="10"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="8:26" x14ac:dyDescent="0.3">
-      <c r="H33" s="2">
-        <v>12</v>
-      </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="4">
-        <v>1</v>
-      </c>
-      <c r="V33" s="12"/>
-      <c r="W33" s="4">
-        <v>1</v>
-      </c>
-      <c r="X33" s="14"/>
-    </row>
-    <row r="34" spans="8:26" x14ac:dyDescent="0.3">
-      <c r="H34" s="2">
-        <v>13</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="4">
-        <v>1</v>
-      </c>
-      <c r="S34" s="12"/>
-      <c r="T34" s="4">
-        <v>1</v>
-      </c>
-      <c r="U34" s="10"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="14"/>
-    </row>
-    <row r="35" spans="8:26" x14ac:dyDescent="0.3">
-      <c r="H35" s="2">
-        <v>14</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="4">
-        <v>1</v>
-      </c>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="15">
-        <v>1</v>
-      </c>
-      <c r="X35" s="14"/>
-    </row>
-    <row r="36" spans="8:26" x14ac:dyDescent="0.3">
-      <c r="H36" s="2">
-        <v>15</v>
-      </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="4">
-        <v>1</v>
-      </c>
-      <c r="W36" s="10"/>
-      <c r="X36" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="8:26" x14ac:dyDescent="0.3">
-      <c r="H37" s="9">
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="7">
+        <v>1</v>
+      </c>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="7">
+        <v>1</v>
+      </c>
+      <c r="W17" s="11"/>
+      <c r="Y17" s="19">
         <v>16</v>
       </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="7">
-        <v>1</v>
-      </c>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="7">
-        <v>1</v>
-      </c>
-      <c r="X37" s="11"/>
-      <c r="Z37" s="13"/>
+      <c r="Z17" s="21">
+        <v>10.3</v>
+      </c>
+      <c r="AA17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="F22" s="4"/>
+      <c r="X22" s="23"/>
+    </row>
+    <row r="37" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y37" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
